--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2768.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2768.xlsx
@@ -354,7 +354,7 @@
         <v>2.424551565666571</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.371501403888871</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2768.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2768.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16534744881147</v>
+        <v>1.561089873313904</v>
       </c>
       <c r="B1">
-        <v>2.424551565666571</v>
+        <v>1.709385871887207</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.017876148223877</v>
       </c>
       <c r="D1">
-        <v>2.371501403888871</v>
+        <v>3.499033451080322</v>
       </c>
       <c r="E1">
-        <v>1.227664901109852</v>
+        <v>3.527324914932251</v>
       </c>
     </row>
   </sheetData>
